--- a/内部编号列表/[hack]R版.xlsx
+++ b/内部编号列表/[hack]R版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="522">
   <si>
     <r>
       <rPr>
@@ -34,6 +34,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>游戏模式编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>十六进制</t>
     </r>
   </si>
@@ -60,6 +71,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式名称</t>
+    </r>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -100,7 +122,66 @@
     <t>143</t>
   </si>
   <si>
-    <t>玩偶匣僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩偶匣僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冒险模式</t>
+    </r>
+  </si>
+  <si>
+    <t>00 20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>00 40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全傻了</t>
+    </r>
   </si>
   <si>
     <t>01</t>
@@ -170,7 +251,66 @@
     <t>144</t>
   </si>
   <si>
-    <t>气球僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>气球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+  </si>
+  <si>
+    <t>00 21</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>00 41</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡飞艇</t>
+    </r>
   </si>
   <si>
     <t>02</t>
@@ -213,7 +353,57 @@
     <t>145</t>
   </si>
   <si>
-    <t>矿工僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿工僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+  </si>
+  <si>
+    <t>00 22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳舞会</t>
+    </r>
+  </si>
+  <si>
+    <t>00 42</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我烂了！</t>
+    </r>
   </si>
   <si>
     <t>03</t>
@@ -256,7 +446,57 @@
     <t>146</t>
   </si>
   <si>
-    <t>跳跳僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳跳僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+  </si>
+  <si>
+    <t>00 23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士的复仇</t>
+    </r>
+  </si>
+  <si>
+    <t>00 43</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸摇摆</t>
+    </r>
   </si>
   <si>
     <t>04</t>
@@ -299,7 +539,75 @@
     <t>147</t>
   </si>
   <si>
-    <t>雪人僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+  </si>
+  <si>
+    <t>00 24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <t>00 44</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三连击</t>
+    </r>
   </si>
   <si>
     <t>05</t>
@@ -342,7 +650,57 @@
     <t>148</t>
   </si>
   <si>
-    <t>蹦极僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+  </si>
+  <si>
+    <t>00 25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晴天</t>
+    </r>
+  </si>
+  <si>
+    <t>00 45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你所有大脑都是我的</t>
+    </r>
   </si>
   <si>
     <t>06</t>
@@ -379,7 +737,84 @@
     </r>
   </si>
   <si>
-    <t>扶梯僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扶梯僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无草皮之地</t>
+    </r>
+  </si>
+  <si>
+    <t>00 46</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸无尽版</t>
+    </r>
   </si>
   <si>
     <t>07</t>
@@ -416,7 +851,84 @@
     </r>
   </si>
   <si>
-    <t>篮球僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要时间</t>
+    </r>
+  </si>
+  <si>
+    <t>00 47</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加销售</t>
+    </r>
   </si>
   <si>
     <t>08</t>
@@ -453,7 +965,102 @@
     </r>
   </si>
   <si>
-    <t>巨人僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 08</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种太阳花的艺术</t>
+    </r>
+  </si>
+  <si>
+    <t>00 48</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
   </si>
   <si>
     <t>09</t>
@@ -517,7 +1124,87 @@
     </r>
   </si>
   <si>
-    <t>小鬼僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小鬼僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空袭</t>
+    </r>
+  </si>
+  <si>
+    <t>49-FF</t>
+  </si>
+  <si>
+    <t>73-255</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>崩溃</t>
+    </r>
   </si>
   <si>
     <t>0A</t>
@@ -572,7 +1259,84 @@
     </r>
   </si>
   <si>
-    <t>僵王博士</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵王博士</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻关卡</t>
+    </r>
+  </si>
+  <si>
+    <t>01 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初到长城</t>
+    </r>
   </si>
   <si>
     <t>0B</t>
@@ -630,7 +1394,84 @@
     <t>9A</t>
   </si>
   <si>
-    <t>豌豆射手僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆射手僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禅境花园</t>
+    </r>
+  </si>
+  <si>
+    <t>01 01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客来袭</t>
+    </r>
   </si>
   <si>
     <t>0C</t>
@@ -688,7 +1529,84 @@
     <t>9B</t>
   </si>
   <si>
-    <t>坚果墙僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果墙僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超乎寻常的压力</t>
+    </r>
+  </si>
+  <si>
+    <t>01 02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑夜降临</t>
+    </r>
   </si>
   <si>
     <t>0D</t>
@@ -755,7 +1673,76 @@
     <t>9C</t>
   </si>
   <si>
-    <t>火爆辣椒僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火爆辣椒僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坟墓模式</t>
+    </r>
+  </si>
+  <si>
+    <t>01 03</t>
+  </si>
+  <si>
+    <t>LEVEL_103</t>
   </si>
   <si>
     <t>0E</t>
@@ -822,7 +1809,76 @@
     <t>9D</t>
   </si>
   <si>
-    <t>机枪射手僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机枪射手僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能把它挖出来吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>01 04</t>
+  </si>
+  <si>
+    <t>LEVEL_104</t>
   </si>
   <si>
     <t>0F</t>
@@ -862,7 +1918,84 @@
     <t>9E</t>
   </si>
   <si>
-    <t>窝瓜僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窝瓜僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 0F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 2F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑暗的暴风雨夜</t>
+    </r>
+  </si>
+  <si>
+    <t>01 05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地球意志的力量</t>
+    </r>
   </si>
   <si>
     <t>16</t>
@@ -899,7 +2032,66 @@
     <t>9F</t>
   </si>
   <si>
-    <t>高坚果僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高坚果僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极闪电战</t>
+    </r>
+  </si>
+  <si>
+    <t>01 06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地球意志的力量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>17</t>
@@ -922,13 +2114,71 @@
     <t>60</t>
   </si>
   <si>
-    <t>幽灵辣椒</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>幽灵辣椒</t>
+    </r>
   </si>
   <si>
     <t>A0</t>
   </si>
   <si>
-    <t>暴走巨人僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暴走巨人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+  </si>
+  <si>
+    <t>00 31</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>松鼠</t>
+    </r>
+  </si>
+  <si>
+    <t>01 07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科学的力量</t>
+    </r>
   </si>
   <si>
     <t>18</t>
@@ -951,13 +2201,63 @@
     <t>61</t>
   </si>
   <si>
-    <t>薄暮投手</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>薄暮投手</t>
+    </r>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>庶民僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庶民僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+  </si>
+  <si>
+    <t>00 32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智慧树</t>
+    </r>
+  </si>
+  <si>
+    <t>108-124</t>
+  </si>
+  <si>
+    <t>264-292</t>
   </si>
   <si>
     <t>19</t>
@@ -980,13 +2280,71 @@
     <t>62</t>
   </si>
   <si>
-    <t>黄金蓓蕾</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄金蓓蕾</t>
+    </r>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>大臣僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大臣僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨中种植物</t>
+    </r>
+  </si>
+  <si>
+    <t>00 33</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破罐者</t>
+    </r>
+  </si>
+  <si>
+    <t>01 25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大战蜘蛛精</t>
+    </r>
   </si>
   <si>
     <t>20</t>
@@ -1009,13 +2367,60 @@
     <t>63</t>
   </si>
   <si>
-    <t>棱镜草</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棱镜草</t>
+    </r>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>方便面僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方便面僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵</t>
+    </r>
+  </si>
+  <si>
+    <t>00 34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部留下</t>
+    </r>
+  </si>
+  <si>
+    <t>01 26</t>
   </si>
   <si>
     <t>21</t>
@@ -1070,7 +2475,84 @@
     <t>A4</t>
   </si>
   <si>
-    <t>灵符僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵符僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隐形食脑者</t>
+    </r>
+  </si>
+  <si>
+    <t>00 35</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个罐子</t>
+    </r>
+  </si>
+  <si>
+    <t>01 27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大战蜘蛛精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(⁰¹ ²⁷)</t>
+    </r>
   </si>
   <si>
     <t>22</t>
@@ -1134,7 +2616,66 @@
     <t>A5</t>
   </si>
   <si>
-    <t>给力僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给力僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看星星</t>
+    </r>
+  </si>
+  <si>
+    <t>00 36</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <t>01 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大战蜘蛛精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(⁰¹ ²⁸)</t>
+    </r>
   </si>
   <si>
     <t>23</t>
@@ -1198,7 +2739,75 @@
     <t>A6</t>
   </si>
   <si>
-    <t>刺客僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刺客僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸水族馆</t>
+    </r>
+  </si>
+  <si>
+    <t>00 37</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的意思是金属</t>
+    </r>
+  </si>
+  <si>
+    <t>01 29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大战蜘蛛精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(⁰¹ ²⁹)</t>
+    </r>
   </si>
   <si>
     <t>24</t>
@@ -1262,7 +2871,66 @@
     <t>A7</t>
   </si>
   <si>
-    <t>怨灵贞子</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>怨灵贞子</t>
+    </r>
+  </si>
+  <si>
+    <t>00 18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵转转看</t>
+    </r>
+  </si>
+  <si>
+    <t>00 38</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆怯的制陶工</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
     <t>25</t>
@@ -1326,7 +2994,66 @@
     <t>A8</t>
   </si>
   <si>
-    <t>大蛇</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大蛇</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小僵尸大麻烦</t>
+    </r>
+  </si>
+  <si>
+    <t>00 39</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变戏法</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸快跑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
   <si>
     <t>1A</t>
@@ -1355,7 +3082,57 @@
     <t>A9</t>
   </si>
   <si>
-    <t>蛟</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蛟</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护传送门</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另一个连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>巨人危机</t>
+    </r>
   </si>
   <si>
     <t>1B</t>
@@ -1413,7 +3190,75 @@
     <t>AA</t>
   </si>
   <si>
-    <t>科学狂人僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科学狂人僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它们像柱子一样</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罐子王牌</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溜狗日</t>
+    </r>
   </si>
   <si>
     <t>1C</t>
@@ -1439,13 +3284,71 @@
     <t>128</t>
   </si>
   <si>
-    <t>普通僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>普通僵尸</t>
+    </r>
   </si>
   <si>
     <t>AB</t>
   </si>
   <si>
-    <t>蜘蛛精</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蜘蛛精</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇区</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽的试炼</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以牙还牙</t>
+    </r>
   </si>
   <si>
     <t>1D</t>
@@ -1471,13 +3374,80 @@
     <t>129</t>
   </si>
   <si>
-    <t>摇旗僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>摇旗僵尸</t>
+    </r>
   </si>
   <si>
     <t>AC</t>
   </si>
   <si>
-    <t>火炬树桩僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火炬树桩僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸快跑</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>01 2F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大战蜘蛛精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(⁰¹ ²ᶠ)</t>
+    </r>
   </si>
   <si>
     <t>1E</t>
@@ -1500,13 +3470,57 @@
     <t>130</t>
   </si>
   <si>
-    <t>路障僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路障僵尸</t>
+    </r>
   </si>
   <si>
     <t>AD</t>
   </si>
   <si>
-    <t>模仿者僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模仿者僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锤僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我也是僵尸</t>
+    </r>
   </si>
   <si>
     <t>1F</t>
@@ -1529,13 +3543,57 @@
     <t>131</t>
   </si>
   <si>
-    <t>撑杆僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撑杆僵尸</t>
+    </r>
   </si>
   <si>
     <t>AE</t>
   </si>
   <si>
-    <t>遛狗僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遛狗僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>00 1F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谁笑到最后</t>
+    </r>
+  </si>
+  <si>
+    <t>00 3F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能铲了它吗？</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1555,13 +3613,29 @@
     <t>132</t>
   </si>
   <si>
-    <t>铁桶僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁桶僵尸</t>
+    </r>
   </si>
   <si>
     <t>AF</t>
   </si>
   <si>
-    <t>僵尸狗</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸狗</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1581,7 +3655,15 @@
     <t>133</t>
   </si>
   <si>
-    <t>读报僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读报僵尸</t>
+    </r>
   </si>
   <si>
     <t>B0-F7</t>
@@ -1607,7 +3689,15 @@
     <t>134</t>
   </si>
   <si>
-    <t>铁栅门僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁栅门僵尸</t>
+    </r>
   </si>
   <si>
     <t>F8-F9</t>
@@ -1662,7 +3752,15 @@
     <t>135</t>
   </si>
   <si>
-    <t>橄榄球僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>橄榄球僵尸</t>
+    </r>
   </si>
   <si>
     <t>FA</t>
@@ -1714,7 +3812,15 @@
     <t>136</t>
   </si>
   <si>
-    <t>舞王僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞王僵尸</t>
+    </r>
   </si>
   <si>
     <t>FB</t>
@@ -1766,7 +3872,15 @@
     <t>137</t>
   </si>
   <si>
-    <t>伴舞僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伴舞僵尸</t>
+    </r>
   </si>
   <si>
     <t>FC</t>
@@ -1818,7 +3932,15 @@
     <t>138</t>
   </si>
   <si>
-    <t>鸭子救生圈僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸭子救生圈僵尸</t>
+    </r>
   </si>
   <si>
     <t>FD</t>
@@ -1870,7 +3992,15 @@
     <t>139</t>
   </si>
   <si>
-    <t>潜水僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>潜水僵尸</t>
+    </r>
   </si>
   <si>
     <t>FE</t>
@@ -1925,7 +4055,15 @@
     <t>140</t>
   </si>
   <si>
-    <t>雪橇车僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇车僵尸</t>
+    </r>
   </si>
   <si>
     <t>FF-01 10</t>
@@ -1983,7 +4121,15 @@
     <t>141</t>
   </si>
   <si>
-    <t>雪橇僵尸小队</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪橇僵尸小队</t>
+    </r>
   </si>
   <si>
     <t>2A</t>
@@ -2009,7 +4155,139 @@
     <t>142</t>
   </si>
   <si>
-    <t>海豚骑士僵尸</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海豚骑士僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图鉴编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>35-3B</t>
+  </si>
+  <si>
+    <t>53-59</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>4F-7F</t>
+  </si>
+  <si>
+    <t>79-127</t>
+  </si>
+  <si>
+    <t>80-AF</t>
+  </si>
+  <si>
+    <t>128-175</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Null(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示为僵尸名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>B0+</t>
+  </si>
+  <si>
+    <t>176+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Null(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过大游戏会崩溃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>30+</t>
+  </si>
+  <si>
+    <t>48+</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +4300,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2037,9 +4315,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2186,8 +4464,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2238,6 +4522,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84DDE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0D09F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2281,12 +4613,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2423,7 +4749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2451,6 +4777,30 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2565,10 +4915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2577,16 +4927,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2598,10 +4948,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2616,98 +4966,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2744,23 +5094,65 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2817,12 +5209,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="009FB7CE"/>
-      <color rgb="00D2B3E7"/>
       <color rgb="00CDCDCD"/>
       <color rgb="00CCBEB0"/>
       <color rgb="00C5E5AD"/>
       <color rgb="008AABEA"/>
+      <color rgb="00FFD966"/>
+      <color rgb="0084DDE1"/>
+      <color rgb="00FF66FF"/>
+      <color rgb="00FFFFFF"/>
+      <color rgb="00FFCCFF"/>
+      <color rgb="00E0D09F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3091,10 +5487,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -3105,10 +5501,16 @@
     <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
     <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="21.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="22.875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="18.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3120,228 +5522,428 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
+      <c r="K1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:19">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="9">
+        <v>32</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9">
+        <v>64</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:19">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="M4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="9">
+        <v>33</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="9">
+        <v>65</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="M5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="9">
+        <v>34</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="9">
+        <v>66</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="M6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="9">
+        <v>35</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="9">
+        <v>67</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="9">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="M7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="9">
+        <v>36</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="9">
+        <v>68</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="9">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="M8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="9">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
+      <c r="P8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="9">
+        <v>69</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G9" s="9">
         <v>95</v>
@@ -3349,28 +5951,55 @@
       <c r="H9" s="9">
         <v>149</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
+      <c r="I9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="9">
+        <v>6</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="9">
+        <v>38</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="9">
+        <v>70</v>
+      </c>
+      <c r="S9" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9">
         <v>96</v>
@@ -3378,28 +6007,55 @@
       <c r="H10" s="9">
         <v>150</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="9">
+        <v>7</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="9">
+        <v>39</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
+      <c r="S10" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="G11" s="9">
         <v>97</v>
@@ -3407,28 +6063,55 @@
       <c r="H11" s="9">
         <v>151</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
+      <c r="I11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="9">
+        <v>8</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="9">
+        <v>40</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" s="9">
+        <v>72</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="G12" s="9">
         <v>98</v>
@@ -3436,28 +6119,55 @@
       <c r="H12" s="9">
         <v>152</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
+      <c r="I12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="9">
+        <v>41</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="G13" s="9">
         <v>99</v>
@@ -3465,923 +6175,2694 @@
       <c r="H13" s="9">
         <v>153</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
+      <c r="I13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="9">
+        <v>10</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="9">
+        <v>42</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" s="9">
+        <v>256</v>
+      </c>
+      <c r="S13" s="29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="H14" s="9">
         <v>154</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
+      <c r="I14" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="9">
+        <v>11</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O14" s="9">
+        <v>43</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="R14" s="9">
+        <v>257</v>
+      </c>
+      <c r="S14" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="H15" s="9">
         <v>155</v>
       </c>
-      <c r="I15" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
+      <c r="I15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L15" s="9">
+        <v>12</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" s="9">
+        <v>44</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" s="9">
+        <v>258</v>
+      </c>
+      <c r="S15" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="H16" s="9">
         <v>156</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
+      <c r="I16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="9">
+        <v>13</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="9">
+        <v>45</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="9">
+        <v>259</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="H17" s="9">
         <v>157</v>
       </c>
-      <c r="I17" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
+      <c r="I17" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L17" s="9">
+        <v>14</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17" s="9">
+        <v>46</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="R17" s="9">
+        <v>260</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="H18" s="9">
         <v>158</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
+      <c r="I18" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="9">
+        <v>15</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="O18" s="9">
+        <v>47</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="9">
+        <v>261</v>
+      </c>
+      <c r="S18" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="H19" s="9">
         <v>159</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
+      <c r="I19" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L19" s="9">
+        <v>16</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="O19" s="9">
+        <v>48</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="R19" s="9">
+        <v>262</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>144</v>
+        <v>248</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="H20" s="9">
         <v>160</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
+      <c r="I20" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="L20" s="9">
+        <v>17</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="O20" s="9">
+        <v>49</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="R20" s="9">
+        <v>263</v>
+      </c>
+      <c r="S20" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>151</v>
+        <v>261</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="H21" s="9">
         <v>161</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
+      <c r="I21" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L21" s="9">
+        <v>18</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="O21" s="9">
+        <v>50</v>
+      </c>
+      <c r="P21" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>158</v>
+        <v>274</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="H22" s="9">
         <v>162</v>
       </c>
-      <c r="I22" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
+      <c r="I22" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L22" s="9">
+        <v>19</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="O22" s="9">
+        <v>51</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="R22" s="9">
+        <v>293</v>
+      </c>
+      <c r="S22" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>165</v>
+        <v>287</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="H23" s="9">
         <v>163</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
+      <c r="I23" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L23" s="9">
+        <v>20</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="O23" s="9">
+        <v>52</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="R23" s="9">
+        <v>294</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="H24" s="9">
         <v>164</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
+      <c r="I24" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="9">
+        <v>21</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O24" s="9">
+        <v>53</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="R24" s="9">
+        <v>295</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>176</v>
+        <v>310</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>179</v>
+        <v>312</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="H25" s="9">
         <v>165</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
+      <c r="I25" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="L25" s="9">
+        <v>22</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="O25" s="9">
+        <v>54</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="R25" s="9">
+        <v>296</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>186</v>
+        <v>325</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="H26" s="9">
         <v>166</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:9">
+      <c r="I26" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" s="9">
+        <v>23</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="O26" s="9">
+        <v>55</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="R26" s="9">
+        <v>297</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>193</v>
+        <v>338</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="H27" s="9">
         <v>167</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:9">
+      <c r="I27" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="L27" s="9">
+        <v>24</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O27" s="9">
+        <v>56</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="R27" s="9">
+        <v>298</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>350</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>200</v>
+        <v>351</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="H28" s="9">
         <v>168</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
+      <c r="I28" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="L28" s="9">
+        <v>25</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="O28" s="9">
+        <v>57</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="R28" s="9">
+        <v>299</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>205</v>
+        <v>363</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>207</v>
+        <v>364</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>208</v>
+        <v>366</v>
       </c>
       <c r="H29" s="9">
         <v>169</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:9">
+      <c r="I29" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="L29" s="9">
+        <v>26</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="O29" s="9">
+        <v>58</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="R29" s="9">
+        <v>300</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="H30" s="9">
         <v>170</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
+      <c r="I30" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="L30" s="9">
+        <v>27</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="O30" s="9">
+        <v>59</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="R30" s="9">
+        <v>301</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>223</v>
+        <v>392</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>393</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="H31" s="9">
         <v>171</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
+      <c r="I31" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="L31" s="9">
+        <v>28</v>
+      </c>
+      <c r="M31" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="O31" s="9">
+        <v>60</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="R31" s="9">
+        <v>302</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>231</v>
+        <v>406</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>407</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="H32" s="9">
         <v>172</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
+      <c r="I32" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="L32" s="9">
+        <v>29</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="O32" s="9">
+        <v>61</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="R32" s="9">
+        <v>303</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:16">
       <c r="A33" s="2" t="s">
-        <v>234</v>
+        <v>416</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>236</v>
+        <v>418</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>238</v>
+        <v>419</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>420</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>239</v>
+        <v>421</v>
       </c>
       <c r="H33" s="9">
         <v>173</v>
       </c>
-      <c r="I33" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
+      <c r="I33" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="L33" s="9">
+        <v>30</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="O33" s="9">
+        <v>62</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>241</v>
+        <v>427</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>242</v>
+        <v>428</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>243</v>
+        <v>429</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>245</v>
+        <v>430</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>246</v>
+        <v>432</v>
       </c>
       <c r="H34" s="9">
         <v>174</v>
       </c>
-      <c r="I34" s="14" t="s">
-        <v>247</v>
+      <c r="I34" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="L34" s="9">
+        <v>31</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="O34" s="9">
+        <v>63</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>249</v>
+        <v>439</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>251</v>
+        <v>440</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>441</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="H35" s="9">
         <v>175</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>253</v>
+      <c r="I35" s="13" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>254</v>
+        <v>444</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>255</v>
+        <v>445</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>257</v>
+        <v>446</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>447</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>258</v>
+        <v>448</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>172</v>
+        <v>449</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>260</v>
+        <v>450</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>261</v>
+        <v>451</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>263</v>
+        <v>452</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>453</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>264</v>
+        <v>454</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>266</v>
+        <v>455</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>182</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>267</v>
+        <v>457</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>270</v>
+        <v>459</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>460</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>271</v>
+        <v>461</v>
       </c>
       <c r="H38" s="9">
         <v>250</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>272</v>
+      <c r="I38" s="13" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>189</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>273</v>
+        <v>463</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>274</v>
+        <v>464</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>276</v>
+        <v>465</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>466</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>277</v>
+        <v>467</v>
       </c>
       <c r="H39" s="9">
         <v>251</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>278</v>
+      <c r="I39" s="13" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>196</v>
+        <v>348</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>279</v>
+        <v>469</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>282</v>
+        <v>471</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>283</v>
+        <v>473</v>
       </c>
       <c r="H40" s="9">
         <v>252</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>284</v>
+      <c r="I40" s="13" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>285</v>
+        <v>475</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>286</v>
+        <v>476</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>288</v>
+        <v>477</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
       <c r="H41" s="9">
         <v>253</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>290</v>
+      <c r="I41" s="13" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>291</v>
+        <v>481</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>292</v>
+        <v>482</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>294</v>
+        <v>483</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>484</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="H42" s="9">
         <v>254</v>
       </c>
-      <c r="I42" s="17" t="s">
-        <v>296</v>
+      <c r="I42" s="13" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>298</v>
+        <v>488</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>299</v>
+        <v>489</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>301</v>
+        <v>490</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>302</v>
+        <v>492</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>303</v>
+        <v>493</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>305</v>
+        <v>495</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>306</v>
+        <v>496</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>307</v>
+        <v>497</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>309</v>
+        <v>498</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:9">
+      <c r="A51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:9">
+      <c r="A54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:9">
+      <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:9">
+      <c r="A57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:9">
+      <c r="A58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:9">
+      <c r="A59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:9">
+      <c r="A60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:9">
+      <c r="A61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:9">
+      <c r="A62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:9">
+      <c r="A63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:9">
+      <c r="A64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:9">
+      <c r="A65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:9">
+      <c r="A66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:9">
+      <c r="A67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:9">
+      <c r="A68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:9">
+      <c r="A69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:9">
+      <c r="A70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:9">
+      <c r="A71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:9">
+      <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="D72" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:9">
+      <c r="A73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:9">
+      <c r="A74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="15" t="s">
+      <c r="E76" s="9">
+        <v>75</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:9">
+      <c r="A77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="9">
+        <v>76</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:9">
+      <c r="A78" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E78" s="9">
+        <v>77</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:9">
+      <c r="A79" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E79" s="9">
+        <v>78</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:9">
+      <c r="A80" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:9">
+      <c r="A81" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:9">
+      <c r="A82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="7:9">
+      <c r="G83" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="7:9">
+      <c r="G84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="7:9">
+      <c r="G85" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="7:9">
+      <c r="G86" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="7:9">
+      <c r="G87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>315</v>
       </c>
     </row>
+    <row r="88" customHeight="1" spans="7:14">
+      <c r="G88" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="N88" s="31"/>
+    </row>
+    <row r="89" customHeight="1" spans="7:9">
+      <c r="G89" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="7:9">
+      <c r="G90" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="7:9">
+      <c r="G91" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="7:9">
+      <c r="G92" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="7:9">
+      <c r="G93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="7:9">
+      <c r="G94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="7:9">
+      <c r="G95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="7:9">
+      <c r="G96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="7:9">
+      <c r="G97" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="7:9">
+      <c r="G98" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/内部编号列表/[hack]R版.xlsx
+++ b/内部编号列表/[hack]R版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="1.4.6" sheetId="1" r:id="rId1"/>
@@ -5489,24 +5489,24 @@
   <sheetPr/>
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6296296296296" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="23.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.1296296296296" style="1" customWidth="1"/>
     <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1296296296296" style="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="22.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.8796296296296" style="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="18.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.8888888888889" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/内部编号列表/[hack]R版.xlsx
+++ b/内部编号列表/[hack]R版.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="536">
   <si>
     <r>
       <rPr>
@@ -3679,6 +3679,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>玉米投手</t>
     </r>
   </si>
@@ -3742,6 +3753,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>咖啡豆</t>
     </r>
   </si>
@@ -3802,6 +3824,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>寒冰豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>大蒜</t>
     </r>
   </si>
@@ -3862,6 +3895,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>卷心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>叶子保护伞</t>
     </r>
   </si>
@@ -3922,6 +3966,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>金盏花</t>
     </r>
   </si>
@@ -3982,6 +4037,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>孢子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>西瓜投手</t>
     </r>
   </si>
@@ -4035,6 +4101,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -4101,6 +4178,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火球</t>
+    </r>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -4173,6 +4261,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>针刺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>图鉴编号</t>
     </r>
   </si>
@@ -4184,6 +4294,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>玉米粒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>植物</t>
     </r>
   </si>
@@ -4196,6 +4317,39 @@
         <charset val="134"/>
       </rPr>
       <t>僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物会受伤</t>
     </r>
   </si>
   <si>
@@ -5057,7 +5211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5140,6 +5294,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5489,8 +5646,8 @@
   <sheetPr/>
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -5532,7 +5689,7 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="28"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
@@ -6202,7 +6359,7 @@
       <c r="R13" s="9">
         <v>256</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="30" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6258,7 +6415,7 @@
       <c r="R14" s="9">
         <v>257</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="30" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6314,7 +6471,7 @@
       <c r="R15" s="9">
         <v>258</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="30" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6482,7 +6639,7 @@
       <c r="R18" s="9">
         <v>261</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="30" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6538,7 +6695,7 @@
       <c r="R19" s="9">
         <v>262</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="S19" s="30" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6594,7 +6751,7 @@
       <c r="R20" s="9">
         <v>263</v>
       </c>
-      <c r="S20" s="29" t="s">
+      <c r="S20" s="30" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6706,7 +6863,7 @@
       <c r="R22" s="9">
         <v>293</v>
       </c>
-      <c r="S22" s="29" t="s">
+      <c r="S22" s="30" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6762,7 +6919,7 @@
       <c r="R23" s="9">
         <v>294</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="31" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6986,7 +7143,7 @@
       <c r="R27" s="9">
         <v>298</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="30" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7042,7 +7199,7 @@
       <c r="R28" s="9">
         <v>299</v>
       </c>
-      <c r="S28" s="29" t="s">
+      <c r="S28" s="30" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7098,7 +7255,7 @@
       <c r="R29" s="9">
         <v>300</v>
       </c>
-      <c r="S29" s="29" t="s">
+      <c r="S29" s="30" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7154,7 +7311,7 @@
       <c r="R30" s="9">
         <v>301</v>
       </c>
-      <c r="S30" s="29" t="s">
+      <c r="S30" s="30" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7210,7 +7367,7 @@
       <c r="R31" s="9">
         <v>302</v>
       </c>
-      <c r="S31" s="29" t="s">
+      <c r="S31" s="30" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7393,7 +7550,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:9">
+    <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>296</v>
       </c>
@@ -7421,8 +7578,17 @@
       <c r="I36" s="13" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
+      <c r="K36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>309</v>
       </c>
@@ -7430,28 +7596,37 @@
         <v>138</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
+        <v>457</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>322</v>
       </c>
@@ -7459,28 +7634,37 @@
         <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H38" s="9">
         <v>250</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
+        <v>464</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>335</v>
       </c>
@@ -7488,28 +7672,37 @@
         <v>165</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H39" s="9">
         <v>251</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
+        <v>471</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>348</v>
       </c>
@@ -7517,28 +7710,37 @@
         <v>179</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H40" s="9">
         <v>252</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
+        <v>478</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>362</v>
       </c>
@@ -7546,28 +7748,37 @@
         <v>193</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H41" s="9">
         <v>253</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
+        <v>485</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>375</v>
       </c>
@@ -7575,99 +7786,146 @@
         <v>207</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H42" s="9">
         <v>254</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
+        <v>492</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:6">
+        <v>501</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:6">
+        <v>507</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
+        <v>513</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="11:13">
+      <c r="K46" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="15" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -7677,10 +7935,19 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
+      <c r="K47" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="M47" s="19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="15" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -7688,12 +7955,21 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
+      <c r="K48" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="15" t="s">
         <v>2</v>
       </c>
@@ -7721,8 +7997,17 @@
       <c r="I49" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
+      <c r="K49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -7750,8 +8035,17 @@
       <c r="I50" s="13" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
+      <c r="K50" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:12">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -7768,7 +8062,7 @@
         <v>138</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>21</v>
@@ -7779,8 +8073,10 @@
       <c r="I51" s="13" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:12">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -7797,7 +8093,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>36</v>
@@ -7808,8 +8104,10 @@
       <c r="I52" s="13" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:12">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -7826,7 +8124,7 @@
         <v>165</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>51</v>
@@ -7837,8 +8135,10 @@
       <c r="I53" s="13" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:12">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
@@ -7855,7 +8155,7 @@
         <v>179</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>66</v>
@@ -7866,8 +8166,10 @@
       <c r="I54" s="14" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:9">
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:12">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -7884,7 +8186,7 @@
         <v>193</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>81</v>
@@ -7895,8 +8197,10 @@
       <c r="I55" s="14" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:9">
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -7913,7 +8217,7 @@
         <v>207</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>96</v>
@@ -7922,10 +8226,12 @@
         <v>97</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
+        <v>454</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:12">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -7939,10 +8245,10 @@
         <v>389</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>109</v>
@@ -7951,10 +8257,12 @@
         <v>110</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
+        <v>462</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:12">
       <c r="A58" s="2" t="s">
         <v>122</v>
       </c>
@@ -7968,10 +8276,10 @@
         <v>403</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>122</v>
@@ -7980,10 +8288,12 @@
         <v>123</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
+        <v>469</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>135</v>
       </c>
@@ -7994,13 +8304,13 @@
         <v>137</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>135</v>
@@ -8009,8 +8319,10 @@
         <v>136</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>472</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
       <c r="A60" s="2" t="s">
@@ -8038,7 +8350,7 @@
         <v>150</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
@@ -8067,7 +8379,7 @@
         <v>163</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
@@ -8096,7 +8408,7 @@
         <v>177</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
@@ -8125,7 +8437,7 @@
         <v>191</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
@@ -8154,7 +8466,7 @@
         <v>205</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -8313,13 +8625,13 @@
         <v>285</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>205</v>
@@ -8464,7 +8776,7 @@
         <v>299</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>271</v>
@@ -8603,13 +8915,13 @@
         <v>417</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>416</v>
@@ -8632,13 +8944,13 @@
         <v>428</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>427</v>
@@ -8661,13 +8973,13 @@
         <v>438</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>284</v>
@@ -8744,7 +9056,7 @@
       <c r="I88" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="N88" s="31"/>
+      <c r="N88" s="32"/>
     </row>
     <row r="89" customHeight="1" spans="7:9">
       <c r="G89" s="2" t="s">
@@ -8762,7 +9074,7 @@
         <v>389</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>354</v>
@@ -8773,7 +9085,7 @@
         <v>403</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>367</v>
@@ -8781,10 +9093,10 @@
     </row>
     <row r="92" customHeight="1" spans="7:9">
       <c r="G92" s="2" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>381</v>
@@ -8847,13 +9159,13 @@
     </row>
     <row r="98" customHeight="1" spans="7:9">
       <c r="G98" s="2" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
